--- a/documents/機能一覧_#かけだしエンジニア.xlsx
+++ b/documents/機能一覧_#かけだしエンジニア.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\作成ドキュメント\#かけだしエンジニア\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\E-3\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4AFAA93-19F8-4AD2-A239-90BE755C3845}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65456550-74F8-4087-A5EC-259FB921B9DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9150" yWindow="0" windowWidth="11340" windowHeight="10845" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="54">
   <si>
     <t>プロジェクト名</t>
     <rPh sb="6" eb="7">
@@ -202,41 +202,10 @@
     <t>WF004</t>
   </si>
   <si>
-    <t>理解度確認機能</t>
-  </si>
-  <si>
-    <t>理解度確認テスト作成機能</t>
-  </si>
-  <si>
-    <t>理解度結果確認機能</t>
-  </si>
-  <si>
-    <t>グラフ作成機能</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>理解度確認</t>
-  </si>
-  <si>
-    <t>理解度確認テスト作成</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>理解度結果の確認</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>テスト結果の集計グラフ</t>
-  </si>
-  <si>
     <t>プロフィール確認機能</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>理解度確認テスト</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>FAQ確認</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -262,43 +231,6 @@
     <t>FAQ編集機能</t>
   </si>
   <si>
-    <t>WR001</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>WR002</t>
-  </si>
-  <si>
-    <t>WR003</t>
-  </si>
-  <si>
-    <t>WR004</t>
-  </si>
-  <si>
-    <t>テストアドバイス確認機能</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>アドバイス機能</t>
-  </si>
-  <si>
-    <t>アドバイス確認機能</t>
-  </si>
-  <si>
-    <t>受講者へのアドバイス</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>アドバイス確認</t>
-  </si>
-  <si>
-    <t>WT001</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>WT002</t>
-  </si>
-  <si>
     <t>WP002</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -308,6 +240,113 @@
   </si>
   <si>
     <t>FAQ機能</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>質問機能</t>
+    <rPh sb="0" eb="2">
+      <t>シツモン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>キノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>質問記入機能</t>
+    <rPh sb="0" eb="6">
+      <t>シツモンキニュウキノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>WQ001</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>WQ002</t>
+  </si>
+  <si>
+    <t>WQ003</t>
+  </si>
+  <si>
+    <t>質問回答機能</t>
+    <rPh sb="0" eb="2">
+      <t>シツモン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>カイトウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>キノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>質問をFAQに登録する機能</t>
+    <rPh sb="0" eb="2">
+      <t>シツモン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>キノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>質問を記入</t>
+    <rPh sb="0" eb="2">
+      <t>シツモン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>キニュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>質問を回答</t>
+    <rPh sb="0" eb="2">
+      <t>シツモン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>カイトウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>質問をFAQに登録</t>
+    <rPh sb="0" eb="2">
+      <t>シツモン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>受講者管理システム</t>
+    <rPh sb="0" eb="3">
+      <t>ジュコウシャ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>カンリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>岡田孟</t>
+    <rPh sb="0" eb="3">
+      <t>オカダタケシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>開発研修</t>
+    <rPh sb="0" eb="4">
+      <t>カイハツケンシュウ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -425,7 +464,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -469,6 +508,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -811,8 +853,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:I35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -831,22 +873,30 @@
       <c r="E2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="7"/>
+      <c r="F2" s="7" t="s">
+        <v>53</v>
+      </c>
       <c r="G2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="14"/>
+      <c r="H2" s="14" t="s">
+        <v>52</v>
+      </c>
       <c r="I2" s="14"/>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.15">
       <c r="E3" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="F3" s="7"/>
+      <c r="F3" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="G3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="H3" s="14"/>
+      <c r="H3" s="15">
+        <v>44351</v>
+      </c>
       <c r="I3" s="14"/>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.15">
@@ -912,7 +962,7 @@
         <v>20</v>
       </c>
       <c r="H8" s="9" t="s">
-        <v>59</v>
+        <v>39</v>
       </c>
       <c r="I8" s="2" t="s">
         <v>24</v>
@@ -926,10 +976,10 @@
       <c r="D9" s="8"/>
       <c r="E9" s="2"/>
       <c r="F9" s="9" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>58</v>
+        <v>38</v>
       </c>
       <c r="H9" s="9" t="s">
         <v>23</v>
@@ -984,17 +1034,17 @@
       </c>
       <c r="C12" s="2"/>
       <c r="D12" s="13" t="s">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" s="12" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="G12" s="2" t="s">
         <v>25</v>
       </c>
       <c r="H12" s="11" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="I12" s="2" t="s">
         <v>24</v>
@@ -1008,13 +1058,13 @@
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
       <c r="F13" s="11" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="G13" s="2" t="s">
         <v>26</v>
       </c>
       <c r="H13" s="11" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="I13" s="2" t="s">
         <v>24</v>
@@ -1028,13 +1078,13 @@
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
       <c r="F14" s="11" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="G14" s="2" t="s">
         <v>27</v>
       </c>
       <c r="H14" s="11" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="I14" s="2" t="s">
         <v>24</v>
@@ -1048,13 +1098,13 @@
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
       <c r="F15" s="11" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="G15" s="2" t="s">
         <v>28</v>
       </c>
       <c r="H15" s="11" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="I15" s="2" t="s">
         <v>24</v>
@@ -1066,17 +1116,17 @@
       </c>
       <c r="C16" s="2"/>
       <c r="D16" s="8" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" s="9" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="H16" s="9" t="s">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="I16" s="2" t="s">
         <v>24</v>
@@ -1090,13 +1140,13 @@
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
       <c r="F17" s="9" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="H17" s="9" t="s">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="I17" s="2" t="s">
         <v>24</v>
@@ -1110,13 +1160,13 @@
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
       <c r="F18" s="9" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="H18" s="9" t="s">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="I18" s="2" t="s">
         <v>24</v>
@@ -1129,40 +1179,22 @@
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
-      <c r="F19" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="G19" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="H19" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="I19" s="2" t="s">
-        <v>24</v>
-      </c>
+      <c r="F19" s="9"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="9"/>
+      <c r="I19" s="2"/>
     </row>
     <row r="20" spans="2:9" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B20" s="2">
         <v>13</v>
       </c>
       <c r="C20" s="2"/>
-      <c r="D20" s="8" t="s">
-        <v>51</v>
-      </c>
+      <c r="D20" s="8"/>
       <c r="E20" s="2"/>
-      <c r="F20" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="G20" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="H20" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="I20" s="2" t="s">
-        <v>24</v>
-      </c>
+      <c r="F20" s="9"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="9"/>
+      <c r="I20" s="2"/>
     </row>
     <row r="21" spans="2:9" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B21" s="2">
@@ -1171,18 +1203,10 @@
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
-      <c r="F21" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="G21" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="H21" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="I21" s="2" t="s">
-        <v>24</v>
-      </c>
+      <c r="F21" s="8"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="8"/>
+      <c r="I21" s="2"/>
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B22" s="2">
